--- a/代理/西航石化城市合伙人收益_山东淄博.xlsx
+++ b/代理/西航石化城市合伙人收益_山东淄博.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8月" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="9月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,56 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/1-9/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/16-9/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/27-9/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 本月山东淄博代理目标为80吨，但实际加油量为50.73吨，未能达到目标，考评低于预期，请及时调整策略。
+2. 按照公司规定：“如果客户加油后缴纳现金或以其他方式结算未能及时将加油款打回公司的，必须在次日12：00前将加油款打回公司。每违反规定一次，扣除1%的提成。”本月山东代理共计有3次未将加油款及时打回公司，扣款3%。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行转账</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1139,8 +1189,12 @@
       <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="8:18">
       <c r="H16" s="10" t="s">
@@ -1222,13 +1276,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:18" ht="17.25" thickBot="1"/>
+    <row r="2" spans="8:18" ht="22.5">
+      <c r="H2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="8:18">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="8:18">
+      <c r="H4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>42979</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="8:18">
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="8:18">
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>80</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
+        <v>50.73</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="11"/>
+      <c r="R6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="8:18">
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="8:18">
+      <c r="H8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>33410.839999999997</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="12">
+        <v>140324.1</v>
+      </c>
+    </row>
+    <row r="9" spans="8:18">
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4">
+        <f>O8*I9</f>
+        <v>2750.3523599999999</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="8:18">
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="8:18">
+      <c r="H11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="2">
+        <v>23968.47</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="12">
+        <v>98705.27</v>
+      </c>
+    </row>
+    <row r="12" spans="8:18">
+      <c r="H12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2">
+        <f>O11*I12</f>
+        <v>2181.3864670000003</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="8:18">
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="8:18">
+      <c r="H14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4.97</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3490.79</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="12">
+        <v>16675</v>
+      </c>
+    </row>
+    <row r="15" spans="8:18">
+      <c r="H15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2.06E-2</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2">
+        <f>O14*I15</f>
+        <v>343.505</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="8:18">
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="8:15">
+      <c r="H17" s="13"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="12">
+        <f>K9+K12+K15</f>
+        <v>5275.2438270000002</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15">
+      <c r="H18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="12">
+        <f>O17*I18</f>
+        <v>158.25731481</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15">
+      <c r="H19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="4">
+        <f>O17*I19</f>
+        <v>1055.0487654000001</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="9">
+        <f>O17-K19-K18</f>
+        <v>4061.9377467900003</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="14">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15">
+      <c r="H20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="8:15" ht="97.5" customHeight="1" thickBot="1">
+      <c r="H21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H10:O10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/代理/西航石化城市合伙人收益_山东淄博.xlsx
+++ b/代理/西航石化城市合伙人收益_山东淄博.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8月" sheetId="1" r:id="rId1"/>
     <sheet name="9月" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="10月" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,40 @@
   </si>
   <si>
     <t>银行转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1-10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款原因：10月份共计有4次未将加油款及时打回公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 本月山东淄博代理目标为80吨，但实际加油量为32.48吨，未能达到目标，考评低于预期，请及时调整策略。
+2. 按照公司规定：“如果客户加油后缴纳现金或以其他方式结算未能及时将加油款打回公司的，必须在次日12：00前将加油款打回公司。每违反规定一次，扣除1%的提成。”本月山东代理共计有4次未将加油款及时打回公司，扣款4%。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1685,13 +1719,297 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:18" ht="17.25" thickBot="1"/>
+    <row r="2" spans="8:18" ht="22.5">
+      <c r="H2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="8:18">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="8:18">
+      <c r="H4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>43009</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="8:18">
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="8:18">
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>80</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="11"/>
+      <c r="R6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="8:18">
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="8:18">
+      <c r="H8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4.97</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>38975.31</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="12">
+        <v>193713</v>
+      </c>
+    </row>
+    <row r="9" spans="8:18">
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2.06E-2</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4">
+        <f>O8*I9</f>
+        <v>3990.4877999999999</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="8:18">
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="8:18">
+      <c r="H11" s="13"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="12">
+        <f>K9</f>
+        <v>3990.4877999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="8:18">
+      <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="12">
+        <f>O11*I12</f>
+        <v>159.61951199999999</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="4">
+        <f>K12</f>
+        <v>159.61951199999999</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="8:18">
+      <c r="H13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="4">
+        <f>O11*I13</f>
+        <v>798.09756000000004</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="9">
+        <f>O11-K13-K12</f>
+        <v>3032.7707279999995</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="14">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="14" spans="8:18">
+      <c r="H14" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="8:18" ht="97.5" customHeight="1" thickBot="1">
+      <c r="H15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H7:O7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/代理/西航石化城市合伙人收益_山东淄博.xlsx
+++ b/代理/西航石化城市合伙人收益_山东淄博.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="8月" sheetId="1" r:id="rId1"/>
     <sheet name="9月" sheetId="2" r:id="rId2"/>
     <sheet name="10月" sheetId="3" r:id="rId3"/>
+    <sheet name="11月" sheetId="4" r:id="rId4"/>
+    <sheet name="12月" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="48">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +265,58 @@
       <t xml:space="preserve">
 1. 本月山东淄博代理目标为80吨，但实际加油量为32.48吨，未能达到目标，考评低于预期，请及时调整策略。
 2. 按照公司规定：“如果客户加油后缴纳现金或以其他方式结算未能及时将加油款打回公司的，必须在次日12：00前将加油款打回公司。每违反规定一次，扣除1%的提成。”本月山东代理共计有4次未将加油款及时打回公司，扣款4%。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 本月山东淄博代理目标为80吨，但实际加油量为82.6吨，未能达到目标，考评低于预期，请及时调整策略。
+2. 按照公司规定：“如果客户加油后缴纳现金或以其他方式结算未能及时将加油款打回公司的，必须在次日12：00前将加油款打回公司。每违反规定一次，扣除1%的提成。”本月山东代理共计有4次未将加油款及时打回公司，扣款4%。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 本月山东淄博代理目标为80吨，但实际加油量为77.86吨，未能达到目标，考评低于预期，请及时调整策略。
+2. 按照公司规定：“如果客户加油后缴纳现金或以其他方式结算未能及时将加油款打回公司的，必须在次日12：00前将加油款打回公司。每违反规定一次，扣除1%的提成。”本月山东代理共计有1次未将加油款及时打回公司，扣款4%。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,7 +1011,7 @@
   <dimension ref="H1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1313,7 +1367,7 @@
   <dimension ref="H1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="A1:XFD1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1721,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2013,4 +2067,584 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:14" ht="22.5">
+      <c r="G1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="7:14" ht="16.5">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="7:14" ht="16.5">
+      <c r="G3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>43040</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="7:14" ht="16.5">
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="7:14" ht="16.5">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>82.6</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="7:14" ht="16.5">
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="7:14" ht="16.5">
+      <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
+        <v>38975.31</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12">
+        <f>J5*J7*1190</f>
+        <v>575019.89999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" ht="16.5">
+      <c r="G8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4">
+        <f>N7*H8</f>
+        <v>17365.600979999999</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="7:14" ht="16.5">
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="7:14" ht="16.5">
+      <c r="G10" s="13"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="12">
+        <f>J8</f>
+        <v>17365.600979999999</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" ht="16.5">
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="12">
+        <f>N10*H11</f>
+        <v>694.62403919999997</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="4">
+        <f>J11</f>
+        <v>694.62403919999997</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" ht="16.5">
+      <c r="G12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="4">
+        <f>N10*H12</f>
+        <v>3473.1201959999999</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="9">
+        <f>N10-J12-J11</f>
+        <v>13197.856744799999</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="14">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" ht="16.5">
+      <c r="G13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="7:14" ht="85.5" customHeight="1" thickBot="1">
+      <c r="G14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="G14:N14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:13" ht="22.5">
+      <c r="F1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="6:13" ht="16.5">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="6:13" ht="16.5">
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43070</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="6:13" ht="16.5">
+      <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="6:13" ht="16.5">
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>77.86</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="6:13" ht="16.5">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="6:13" ht="16.5">
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>38975.31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="12">
+        <f>I5*I7*1190</f>
+        <v>542022.39</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" ht="16.5">
+      <c r="F8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4">
+        <f>M7*G8</f>
+        <v>16369.076178000001</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="6:13" ht="16.5">
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="6:13" ht="16.5">
+      <c r="F10" s="13"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="12">
+        <f>I8</f>
+        <v>16369.076178000001</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" ht="16.5">
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12">
+        <f>M10*G11</f>
+        <v>163.69076178</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="4">
+        <f>I11</f>
+        <v>163.69076178</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" ht="16.5">
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4">
+        <f>M10*G12</f>
+        <v>3273.8152356000005</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="9">
+        <f>M10-I12-I11</f>
+        <v>12931.57018062</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="14">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" ht="16.5">
+      <c r="F13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="6:13" ht="85.5" customHeight="1" thickBot="1">
+      <c r="F14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>